--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/10 Comparar costos con precios de mercado.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/10 Comparar costos con precios de mercado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3DA53-AF8E-436B-B537-831C82853C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -54,12 +49,6 @@
     <t>=</t>
   </si>
   <si>
-    <t xml:space="preserve">                                         AUDITORIA FINANCIERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                EMPRESA YYY. S. A .</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -127,12 +116,6 @@
   </si>
   <si>
     <t>Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Comparación Precios de Productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                DEL 01 DE ENERO AL 31 DE DICIEMBRE DE 2024</t>
   </si>
   <si>
     <r>
@@ -159,11 +142,23 @@
   <si>
     <t>D-9</t>
   </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>AUDITORIA FINANCIERA</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Comparación Precios de Productos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,17 +408,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -462,6 +451,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +495,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D546D8-61D5-48B5-BE3F-DC2F197C992D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -555,7 +550,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357CC929-BBA3-4C3B-83EF-012783752697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -610,7 +605,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7A4C64-07CC-4F71-B9E3-26D5D20E01AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,7 +673,7 @@
         <xdr:cNvPr id="7" name="Triángulo isósceles 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C06A8B-F4A4-4998-AA59-1BD3F6DDE7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +738,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1088,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1103,12 +1104,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,195 +1125,199 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="25" t="s">
-        <v>38</v>
+      <c r="K3" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="E5" s="25"/>
+      <c r="J5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="D6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="E6" s="25"/>
+      <c r="J6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="D7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="J7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:11" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="I10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>550</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <v>12</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5500</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6600</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>350</v>
+      </c>
+      <c r="D12" s="12">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10500</v>
+      </c>
+      <c r="G12" s="16">
+        <v>12250</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14">
-        <v>550</v>
-      </c>
-      <c r="D11" s="14">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="C13" s="12">
+        <v>250</v>
+      </c>
+      <c r="D13" s="12">
+        <v>150</v>
+      </c>
+      <c r="E13" s="12">
+        <v>180</v>
+      </c>
+      <c r="F13" s="16">
+        <v>37500</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45000</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="18">
-        <v>5500</v>
-      </c>
-      <c r="G11" s="18">
-        <v>6600</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="14">
-        <v>350</v>
-      </c>
-      <c r="D12" s="14">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14">
-        <v>35</v>
-      </c>
-      <c r="F12" s="18">
-        <v>10500</v>
-      </c>
-      <c r="G12" s="18">
-        <v>12250</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="C14" s="12">
+        <v>170</v>
+      </c>
+      <c r="D14" s="12">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45</v>
+      </c>
+      <c r="F14" s="16">
+        <v>8500</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7650</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="I14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14">
-        <v>250</v>
-      </c>
-      <c r="D13" s="14">
-        <v>150</v>
-      </c>
-      <c r="E13" s="14">
-        <v>180</v>
-      </c>
-      <c r="F13" s="18">
-        <v>37500</v>
-      </c>
-      <c r="G13" s="18">
-        <v>45000</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="14">
-        <v>170</v>
-      </c>
-      <c r="D14" s="14">
-        <v>50</v>
-      </c>
-      <c r="E14" s="14">
-        <v>45</v>
-      </c>
-      <c r="F14" s="18">
-        <v>8500</v>
-      </c>
-      <c r="G14" s="18">
-        <v>7650</v>
-      </c>
-      <c r="H14" s="14" t="s">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="15" t="s">
+    </row>
+    <row r="19" spans="2:9" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1322,9 +1327,9 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="2:9" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>30</v>
+    <row r="20" spans="2:9" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1335,10 +1340,10 @@
       <c r="I20"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1359,32 +1364,32 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
@@ -1394,17 +1399,21 @@
         <v>5</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="16" t="s">
-        <v>10</v>
+      <c r="E37" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B28:F30"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
